--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT093-001 - Akuntansi - Transaksi - SJS - Cek Jurnal 000000006 DANA PENSIUN PT.BANK BNI.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT093-001 - Akuntansi - Transaksi - SJS - Cek Jurnal 000000006 DANA PENSIUN PT.BANK BNI.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\62927\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525F3DE0-4393-41D4-9641-22527632090D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKAKT093-001" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="64">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -141,12 +140,89 @@
   </si>
   <si>
     <t>Cek jurnal upload Iuran tetapi tidak di settle oleh keuangan</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Cek Jurnal Cek jurnal upload Iuran tetapi tidak di settle oleh keuangan
+ Perusahaan : PT HALEYORA POWERINDO
+ Bulan: Agustus 2022</t>
+  </si>
+  <si>
+    <t>BC001-O-22-08-00982</t>
+  </si>
+  <si>
+    <t>BC001-O-22-08-00999</t>
+  </si>
+  <si>
+    <t>BC001-I-22-08-00399</t>
+  </si>
+  <si>
+    <t>BC001-I-22-08-00401</t>
+  </si>
+  <si>
+    <t>BC001-O-22-08-01027</t>
+  </si>
+  <si>
+    <t>BC001-O-22-08-01033</t>
+  </si>
+  <si>
+    <t>BC001-O-22-08-01036</t>
+  </si>
+  <si>
+    <t>BC001-I-22-08-00404</t>
+  </si>
+  <si>
+    <t>BC001-O-22-08-01004</t>
+  </si>
+  <si>
+    <t>BC001-I-22-08-00400</t>
+  </si>
+  <si>
+    <t>BC001-I-22-08-00405</t>
+  </si>
+  <si>
+    <t>BC001-O-22-08-01007</t>
+  </si>
+  <si>
+    <t>BC001-O-22-08-01009</t>
+  </si>
+  <si>
+    <t>BC001-O-22-08-01011</t>
+  </si>
+  <si>
+    <t>BC001-O-22-08-01013</t>
+  </si>
+  <si>
+    <t>BC001-O-22-08-01014</t>
+  </si>
+  <si>
+    <t>BC001-O-22-08-01010</t>
+  </si>
+  <si>
+    <t>BC001-O-22-08-01025</t>
+  </si>
+  <si>
+    <t>BC001-O-22-08-01031</t>
+  </si>
+  <si>
+    <t>BC001-I-22-08-00411</t>
+  </si>
+  <si>
+    <t>BC001-I-22-08-00417</t>
+  </si>
+  <si>
+    <t>BC001-O-22-08-01022</t>
+  </si>
+  <si>
+    <t>BC001-I-22-08-00418</t>
+  </si>
+  <si>
+    <t>BC001-I-22-08-00414</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -526,11 +602,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -984,9 +1060,6 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" ht="75">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1038,9 +1111,6 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="75">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1086,6 +1156,1545 @@
       </c>
       <c r="O10" s="9" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="105">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f xml:space="preserve"> "Username : "&amp;G11&amp;",
+Password : "&amp;H11&amp;",
+Search Dokumen ID : "&amp;M11&amp;",
+Tanggal : "&amp;N11</f>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-00982,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G11" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="105">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f xml:space="preserve"> "Username : "&amp;G12&amp;",
+Password : "&amp;H12&amp;",
+Search Dokumen ID : "&amp;M12&amp;",
+Tanggal : "&amp;N12</f>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-00999,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G12" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="105">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" ref="F13:F40" si="2" xml:space="preserve"> "Username : "&amp;G13&amp;",
+Password : "&amp;H13&amp;",
+Search Dokumen ID : "&amp;M13&amp;",
+Tanggal : "&amp;N13</f>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01016,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G13" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="105">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-I-22-08-00399,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G14" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="105">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-I-22-08-00401,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G15" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="105">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01027,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G16" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="105">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01033,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G17" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="105">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01036,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G18" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="105">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-I-22-08-00404,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G19" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="105">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01004,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G20" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="105">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-I-22-08-00400,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G21" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="105">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-I-22-08-00405,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G22" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="105">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01007,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G23" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="105">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01009,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G24" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="105">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01011,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G25" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="105">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01013,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G26" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="105">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01014,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G27" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="105">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01010,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G28" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="105">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01025,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G29" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="105">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01031,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G30" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="105">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-I-22-08-00411,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G31" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="105">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-I-22-08-00417,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G32" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="105">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01017,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G33" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="105">
+      <c r="A34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01022,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G34" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="105">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01026,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G35" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="105">
+      <c r="A36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-I-22-08-00423,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G36" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="105">
+      <c r="A37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-O-22-08-01032,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G37" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="105">
+      <c r="A38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-I-22-08-00418,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G38" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="105">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-I-22-08-00414,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G39" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="105">
+      <c r="A40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : BC001-I-22-08-00407,
+Tanggal : 16/08/2022</v>
+      </c>
+      <c r="G40" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
